--- a/data_year/zb/运输和邮电/民用运输船舶拥有量.xlsx
+++ b/data_year/zb/运输和邮电/民用运输船舶拥有量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,589 +473,355 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42640605</v>
+        <v>168985654</v>
       </c>
       <c r="C2" t="n">
-        <v>1439743</v>
+        <v>1410719</v>
       </c>
       <c r="D2" t="n">
-        <v>1014013</v>
+        <v>1001395</v>
       </c>
       <c r="E2" t="n">
-        <v>185018</v>
+        <v>155624</v>
       </c>
       <c r="F2" t="n">
-        <v>8640504</v>
+        <v>11422911</v>
       </c>
       <c r="G2" t="n">
-        <v>18258</v>
+        <v>2260</v>
       </c>
       <c r="H2" t="n">
-        <v>44658</v>
+        <v>22783</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45526726</v>
+        <v>202602789</v>
       </c>
       <c r="C3" t="n">
-        <v>1370221</v>
+        <v>1600896</v>
       </c>
       <c r="D3" t="n">
-        <v>1048915</v>
+        <v>1004622</v>
       </c>
       <c r="E3" t="n">
-        <v>169329</v>
+        <v>157950</v>
       </c>
       <c r="F3" t="n">
-        <v>8968670</v>
+        <v>10040453</v>
       </c>
       <c r="G3" t="n">
-        <v>27902</v>
+        <v>3768</v>
       </c>
       <c r="H3" t="n">
-        <v>41457</v>
+        <v>21292</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48372587</v>
+        <v>218793742</v>
       </c>
       <c r="C4" t="n">
-        <v>1433547</v>
+        <v>1531873</v>
       </c>
       <c r="D4" t="n">
-        <v>945387</v>
+        <v>1021260</v>
       </c>
       <c r="E4" t="n">
-        <v>165936</v>
+        <v>158309</v>
       </c>
       <c r="F4" t="n">
-        <v>8683075</v>
+        <v>9692502</v>
       </c>
       <c r="G4" t="n">
-        <v>33405</v>
+        <v>3798</v>
       </c>
       <c r="H4" t="n">
-        <v>37041</v>
+        <v>20282</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60745234</v>
+        <v>234317614</v>
       </c>
       <c r="C5" t="n">
-        <v>1269607</v>
+        <v>1235661</v>
       </c>
       <c r="D5" t="n">
-        <v>971514</v>
+        <v>1031711</v>
       </c>
       <c r="E5" t="n">
-        <v>163813</v>
+        <v>155340</v>
       </c>
       <c r="F5" t="n">
-        <v>9871079</v>
+        <v>9692720</v>
       </c>
       <c r="G5" t="n">
-        <v>30631</v>
+        <v>1287</v>
       </c>
       <c r="H5" t="n">
-        <v>40457</v>
+        <v>17214</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75114059</v>
+        <v>247399826</v>
       </c>
       <c r="C6" t="n">
-        <v>1197191</v>
+        <v>1424950</v>
       </c>
       <c r="D6" t="n">
-        <v>961562</v>
+        <v>1030973</v>
       </c>
       <c r="E6" t="n">
-        <v>166854</v>
+        <v>154974</v>
       </c>
       <c r="F6" t="n">
-        <v>11058522</v>
+        <v>10452402</v>
       </c>
       <c r="G6" t="n">
-        <v>34666</v>
+        <v>1334</v>
       </c>
       <c r="H6" t="n">
-        <v>43846</v>
+        <v>17003</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90756392</v>
+        <v>261434867</v>
       </c>
       <c r="C7" t="n">
-        <v>1480381</v>
+        <v>1424426</v>
       </c>
       <c r="D7" t="n">
-        <v>977846</v>
+        <v>1015939</v>
       </c>
       <c r="E7" t="n">
-        <v>165900</v>
+        <v>149659</v>
       </c>
       <c r="F7" t="n">
-        <v>11030057</v>
+        <v>11007996</v>
       </c>
       <c r="G7" t="n">
-        <v>33496</v>
+        <v>1391</v>
       </c>
       <c r="H7" t="n">
-        <v>41394</v>
+        <v>16246</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>98241489</v>
+        <v>255170820</v>
       </c>
       <c r="C8" t="n">
-        <v>1538957</v>
+        <v>1445786</v>
       </c>
       <c r="D8" t="n">
-        <v>1025861</v>
+        <v>999008</v>
       </c>
       <c r="E8" t="n">
-        <v>157805</v>
+        <v>144568</v>
       </c>
       <c r="F8" t="n">
-        <v>12015595</v>
+        <v>11056320</v>
       </c>
       <c r="G8" t="n">
-        <v>33355</v>
+        <v>3124</v>
       </c>
       <c r="H8" t="n">
-        <v>36555</v>
+        <v>15576</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>106441173</v>
+        <v>246750827</v>
       </c>
       <c r="C9" t="n">
-        <v>1520924</v>
+        <v>1532698</v>
       </c>
       <c r="D9" t="n">
-        <v>1004546</v>
+        <v>964377</v>
       </c>
       <c r="E9" t="n">
-        <v>157544</v>
+        <v>131746</v>
       </c>
       <c r="F9" t="n">
-        <v>12373412</v>
+        <v>9765519</v>
       </c>
       <c r="G9" t="n">
-        <v>22316</v>
+        <v>3122</v>
       </c>
       <c r="H9" t="n">
-        <v>34227</v>
+        <v>13178</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>111047702</v>
+        <v>242447129</v>
       </c>
       <c r="C10" t="n">
-        <v>1564439</v>
+        <v>1465403</v>
       </c>
       <c r="D10" t="n">
-        <v>994495</v>
+        <v>960245</v>
       </c>
       <c r="E10" t="n">
-        <v>152247</v>
+        <v>125754</v>
       </c>
       <c r="F10" t="n">
-        <v>13121439</v>
+        <v>8705726</v>
       </c>
       <c r="G10" t="n">
-        <v>14050</v>
+        <v>3044</v>
       </c>
       <c r="H10" t="n">
-        <v>31943</v>
+        <v>11221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>133384848</v>
+        <v>248626381</v>
       </c>
       <c r="C11" t="n">
-        <v>1120381</v>
+        <v>1422199</v>
       </c>
       <c r="D11" t="n">
-        <v>979384</v>
+        <v>882764</v>
       </c>
       <c r="E11" t="n">
-        <v>149367</v>
+        <v>121440</v>
       </c>
       <c r="F11" t="n">
-        <v>12702991</v>
+        <v>8223366</v>
       </c>
       <c r="G11" t="n">
-        <v>2166</v>
+        <v>3044</v>
       </c>
       <c r="H11" t="n">
-        <v>27565</v>
+        <v>10115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>168985654</v>
+        <v>263138418</v>
       </c>
       <c r="C12" t="n">
-        <v>1410719</v>
+        <v>1586411</v>
       </c>
       <c r="D12" t="n">
-        <v>1001395</v>
+        <v>857098</v>
       </c>
       <c r="E12" t="n">
-        <v>155624</v>
+        <v>117931</v>
       </c>
       <c r="F12" t="n">
-        <v>11422911</v>
+        <v>7463162</v>
       </c>
       <c r="G12" t="n">
-        <v>2260</v>
+        <v>2846</v>
       </c>
       <c r="H12" t="n">
-        <v>22783</v>
+        <v>8874</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>202602789</v>
+        <v>276926929</v>
       </c>
       <c r="C13" t="n">
-        <v>1600896</v>
+        <v>1888557</v>
       </c>
       <c r="D13" t="n">
-        <v>1004622</v>
+        <v>856146</v>
       </c>
       <c r="E13" t="n">
-        <v>157950</v>
+        <v>118025</v>
       </c>
       <c r="F13" t="n">
-        <v>10040453</v>
+        <v>7399347</v>
       </c>
       <c r="G13" t="n">
-        <v>3768</v>
+        <v>1622</v>
       </c>
       <c r="H13" t="n">
-        <v>21292</v>
+        <v>7865</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>218793742</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1531873</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1021260</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>158309</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9692502</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3798</v>
-      </c>
+        <v>114507</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>20282</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>234317614</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1235661</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1031711</v>
-      </c>
-      <c r="E15" t="n">
-        <v>155340</v>
-      </c>
-      <c r="F15" t="n">
-        <v>9692720</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1287</v>
-      </c>
-      <c r="H15" t="n">
-        <v>17214</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>247399826</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1424950</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1030973</v>
-      </c>
-      <c r="E16" t="n">
-        <v>154974</v>
-      </c>
-      <c r="F16" t="n">
-        <v>10452402</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1334</v>
-      </c>
-      <c r="H16" t="n">
-        <v>17003</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>261434867</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1424426</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1015939</v>
-      </c>
-      <c r="E17" t="n">
-        <v>149659</v>
-      </c>
-      <c r="F17" t="n">
-        <v>11007996</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1391</v>
-      </c>
-      <c r="H17" t="n">
-        <v>16246</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>255170820</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1445786</v>
-      </c>
-      <c r="D18" t="n">
-        <v>999008</v>
-      </c>
-      <c r="E18" t="n">
-        <v>144568</v>
-      </c>
-      <c r="F18" t="n">
-        <v>11056320</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3124</v>
-      </c>
-      <c r="H18" t="n">
-        <v>15576</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>246750827</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1532698</v>
-      </c>
-      <c r="D19" t="n">
-        <v>964377</v>
-      </c>
-      <c r="E19" t="n">
-        <v>131746</v>
-      </c>
-      <c r="F19" t="n">
-        <v>9765519</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3122</v>
-      </c>
-      <c r="H19" t="n">
-        <v>13178</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>242447129</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1465403</v>
-      </c>
-      <c r="D20" t="n">
-        <v>960245</v>
-      </c>
-      <c r="E20" t="n">
-        <v>125754</v>
-      </c>
-      <c r="F20" t="n">
-        <v>8705726</v>
-      </c>
-      <c r="G20" t="n">
-        <v>3044</v>
-      </c>
-      <c r="H20" t="n">
-        <v>11221</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>248626381</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1422199</v>
-      </c>
-      <c r="D21" t="n">
-        <v>882764</v>
-      </c>
-      <c r="E21" t="n">
-        <v>121440</v>
-      </c>
-      <c r="F21" t="n">
-        <v>8223366</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3044</v>
-      </c>
-      <c r="H21" t="n">
-        <v>10115</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>270601580</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1586411</v>
-      </c>
-      <c r="D22" t="n">
-        <v>859944</v>
-      </c>
-      <c r="E22" t="n">
-        <v>126805</v>
-      </c>
-      <c r="F22" t="n">
-        <v>7463162</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2846</v>
-      </c>
-      <c r="H22" t="n">
-        <v>8874</v>
+        <v>7361</v>
       </c>
     </row>
   </sheetData>
